--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -12256,7 +12256,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/12/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>18/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F239" t="n">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>INMOBILIARIA INDEPENDENCIA SPA</t>
+          <t>Constructora Independencia SpA.</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/03/2023</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/04/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/04/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -4815,7 +4815,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN Y MODIFICACION PLANTA PASTAS Y PULPA. PATAGONIAFRESH S.A., PLANTA MOLINA</t>
+          <t>Ampliación y Modificación Planta Pasta y Pulpas Patagoniafresh S.A. Planta Molina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>02/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159844876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159961863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación y Modificación Planta Pasta y Pulpas Patagoniafresh S.A. Planta Molina</t>
+          <t>AMPLIACIÓN Y MODIFICACIÓN PLANTA PASTAS Y PULPAS PATAGONIAFRESH S.A., PLANTA MOLINA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159961863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159847723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN Y MODIFICACIÓN PLANTA PASTAS Y PULPAS PATAGONIAFRESH S.A., PLANTA MOLINA</t>
+          <t>AMPLIACIÓN Y MODIFICACION PLANTA PASTAS Y PULPA. PATAGONIAFRESH S.A., PLANTA MOLINA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/08/2023</t>
+          <t>17/08/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159847723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159844876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -12099,7 +12099,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F246" t="n">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">

--- a/data/Molina.xlsx
+++ b/data/Molina.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
